--- a/finance-tracker-page/Personal Finance Database - Sample.xlsx
+++ b/finance-tracker-page/Personal Finance Database - Sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjsex\OneDrive\Documents\Personal Fianance Dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjsex\OneDrive\Documents\Portfolio\finance-tracker-page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2090424-27A8-438F-A79F-C03ED5F5D414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DFF7DA-C4A7-48D3-85D7-63A15F467428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0B83F7F0-C47D-4FB4-A660-89FA22E28BDE}"/>
   </bookViews>
@@ -560,7 +560,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J12" sqref="J12"/>
+      <selection pane="topRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,7 +759,7 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:N5" si="0">SUM(C2:C3)-SUM(C4)-SUM(C6:C16)</f>
-        <v>1690</v>
+        <v>1590</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
